--- a/Reference text.xlsx
+++ b/Reference text.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IT-31\Desktop\Suraj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22E30D8-2C49-48E7-BF18-7B4C12D7BC1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCBFE542-9869-4231-9841-01D8653C63AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{34D039CE-EF38-4BA0-9156-2AFF2E3E0792}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>COLLEGE OF ARTS AND SCIENCE</t>
   </si>
   <si>
-    <t>DEPARTMENT: COMPUTER SCIENCE</t>
-  </si>
-  <si>
     <t>LIST OF REFERENCE TEXT</t>
   </si>
   <si>
@@ -277,13 +274,16 @@
   </si>
   <si>
     <t>PHI Learning</t>
+  </si>
+  <si>
+    <t>DEPARTMENT: COMPUTER SCIENCE &amp;BCA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,6 +331,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -340,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -381,24 +387,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,17 +423,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,8 +447,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,529 +790,624 @@
   </sheetPr>
   <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:D56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6" style="21" customWidth="1"/>
+    <col min="2" max="2" width="57" style="21" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="20"/>
+      <c r="A3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="17"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="17"/>
+      <c r="A4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="18"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>1</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="E7" s="16"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="16"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="28">
+        <v>3</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="19"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>2</v>
-      </c>
-      <c r="B8" s="13" t="s">
+      <c r="C9" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
+        <v>4</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="19"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="13" t="s">
+      <c r="C10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>5</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="19"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="19"/>
+      <c r="E12" s="16"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="28">
+        <v>7</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="19"/>
+      <c r="C13" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="16"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="28">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="D14" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="28">
+        <v>9</v>
+      </c>
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="19"/>
+      <c r="D15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="28">
+        <v>10</v>
+      </c>
       <c r="B16" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="D16" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="28">
+        <v>11</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>12</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="28">
+        <v>13</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="28">
+        <v>14</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="19"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="D20" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
+        <v>15</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="28">
+        <v>16</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="19"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="19"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="19"/>
+      <c r="D22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="16"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="28">
+        <v>17</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="16"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="28">
+        <v>18</v>
+      </c>
       <c r="B24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="D24" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="16"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="28">
+        <v>19</v>
+      </c>
       <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="19"/>
+      <c r="D25" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="16"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="28">
+        <v>20</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="19"/>
+      <c r="D26" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="16"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="28">
+        <v>21</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="19"/>
+      <c r="D27" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="16"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" t="s">
+      <c r="A28" s="28">
+        <v>22</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="28">
+        <v>23</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="19"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
+      <c r="C29" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="28">
+        <v>24</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="19"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s">
+      <c r="C30" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" s="16"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="28">
+        <v>25</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="19"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" t="s">
+      <c r="C31" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="19"/>
+      <c r="E31" s="16"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
+      <c r="A32" s="28">
+        <v>26</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="19"/>
+      <c r="D32" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="24"/>
-      <c r="E33" s="19"/>
+      <c r="A33" s="10"/>
+      <c r="E33" s="16"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="24"/>
-      <c r="E34" s="19"/>
+      <c r="A34" s="10"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="E35" s="19"/>
+      <c r="A35" s="10"/>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="19"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="16"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="4"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="19"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="19"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="16"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="19"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="16"/>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="4"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="19"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="16"/>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="E52" s="19"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="19"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="16"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="19"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="19"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>23</v>
-      </c>
-      <c r="E57" s="19"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="16"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9"/>
@@ -1458,7 +1560,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A4:D4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>